--- a/data/trans_camb/P23_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_2_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>31,9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,66</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,17</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 14,33</t>
+          <t>-11,28; 29,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 9,77</t>
+          <t>-18,41; 17,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 26,14</t>
+          <t>-17,03; 19,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 8,82</t>
+          <t>-3,32; 31,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 17,41</t>
+          <t>-17,23; 14,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 6,33</t>
+          <t>12,43; 53,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 24,6</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 11,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 35,16</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,31%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>145,75%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58,17%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99,13%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 129,49</t>
+          <t>-50,2; 391,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 98,25</t>
+          <t>-75,01; 217,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,19; 180,79</t>
+          <t>-72,93; 223,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 55,2</t>
+          <t>-13,85; 226,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 120,71</t>
+          <t>-55,33; 105,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 43,12</t>
+          <t>34,04; 379,16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-12,41; 186,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-51,44; 86,8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 267,96</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,57</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 8,71</t>
+          <t>-10,96; 6,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 10,62</t>
+          <t>-9,25; 13,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 6,34</t>
+          <t>2,03; 25,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 1,63</t>
+          <t>-11,19; 8,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 4,11</t>
+          <t>-17,6; 1,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 3,04</t>
+          <t>-13,41; 6,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; 5,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,06; 4,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 12,08</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,76%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-11,59%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-4,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 73,9</t>
+          <t>-49,68; 54,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 80,88</t>
+          <t>-45,84; 129,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 24,62</t>
+          <t>7,22; 213,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 6,38</t>
+          <t>-28,72; 29,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 20,76</t>
+          <t>-45,61; 7,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 15,08</t>
+          <t>-34,49; 23,39</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-27,17; 22,07</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-38,75; 16,92</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-12,48; 52,23</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 5,62</t>
+          <t>-1,16; 14,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 9,82</t>
+          <t>-0,86; 16,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 6,5</t>
+          <t>2,98; 21,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 8,57</t>
+          <t>-8,15; 9,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,57</t>
+          <t>-5,44; 10,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 7,13</t>
+          <t>-5,91; 11,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 9,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 10,47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 12,68</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>141,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23,97%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31,42%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43,63%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,8; 58,93</t>
+          <t>-15,49; 316,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 112,55</t>
+          <t>-22,26; 340,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 38,73</t>
+          <t>16,66; 432,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 50,59</t>
+          <t>-35,16; 64,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 32,62</t>
+          <t>-23,73; 76,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 49,46</t>
+          <t>-26,75; 76,73</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 83,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-13,45; 96,92</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 110,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 41,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 49,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 31,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 11,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 23,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 14,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10,38</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5,18</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 7,99</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 9,96</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 19,24</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 8,47</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 4,09</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 13,12</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 6,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 4,32</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 13,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>79,05%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-8,54%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>36,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,06; 74,45</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-27,57; 89,07</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 175,35</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 36,13</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-28,34; 17,93</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 55,87</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; 37,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-22,74; 23,79</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 71,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
